--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3098393.163628845</v>
+        <v>3206544.256543139</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8291985.643365031</v>
+        <v>8298028.653952288</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>111.7285538127045</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>8.695085082179384</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>104.3500276871986</v>
+        <v>39.9725632785233</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -899,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>263.5756862174215</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>29.33319216783816</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247047</v>
@@ -947,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>176.996578901263</v>
       </c>
       <c r="V7" t="n">
-        <v>241.046870892802</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>84.04176302934005</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>63.63509288679575</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>36.70138737407932</v>
+        <v>224.3431768611774</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>106.9094576655899</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>27.34574348918484</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>80.25286948725223</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>14.19454216862647</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695456</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>25.07757910977727</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>110.9396563989393</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>53.76947475493767</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>122.8199531272439</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>98.79136808967741</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6324680438220639</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701356</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>113.7379149844577</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>108.3106907504114</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>22.54881804343173</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>185.7495818221983</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>82.08837997182202</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>207.7302028825775</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>33.66638448560049</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.5035027782531</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>68.17501931583773</v>
+        <v>86.90598908794038</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>93.38904885909318</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>21.90286287505425</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1136.221880202098</v>
+        <v>909.233203697441</v>
       </c>
       <c r="C2" t="n">
-        <v>1136.221880202098</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="D2" t="n">
-        <v>777.9561815953474</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E2" t="n">
-        <v>777.9561815953474</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1862.456293733292</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1509.687638463178</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1136.221880202098</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1136.221880202098</v>
+        <v>909.233203697441</v>
       </c>
     </row>
     <row r="3">
@@ -4395,37 +4397,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>367.6491696559295</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>662.3527266874012</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938516</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.556931114678</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388.1694341876314</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C4" t="n">
-        <v>219.2332512597245</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4513,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1334.41330386345</v>
+        <v>1596.069793530534</v>
       </c>
       <c r="U4" t="n">
-        <v>1045.294966367288</v>
+        <v>1596.069793530534</v>
       </c>
       <c r="V4" t="n">
-        <v>790.6104781614013</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="W4" t="n">
-        <v>790.6104781614013</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="X4" t="n">
-        <v>790.6104781614013</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y4" t="n">
-        <v>569.8178990178711</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1479.530414586155</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="C5" t="n">
-        <v>1110.567897645743</v>
+        <v>158.9142690056421</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>158.9142690056421</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>158.9142690056421</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4595,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847235</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X5" t="n">
-        <v>1479.530414586155</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y5" t="n">
-        <v>1479.530414586155</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4647,22 +4649,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429752</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>801.944955774447</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.2185726509455</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C7" t="n">
-        <v>307.2185726509455</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386097</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386097</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4750,25 +4752,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288653</v>
+        <v>1158.449542617352</v>
       </c>
       <c r="V7" t="n">
-        <v>778.2842075181459</v>
+        <v>903.765054411465</v>
       </c>
       <c r="W7" t="n">
-        <v>488.8670374811852</v>
+        <v>903.765054411465</v>
       </c>
       <c r="X7" t="n">
-        <v>488.8670374811852</v>
+        <v>903.765054411465</v>
       </c>
       <c r="Y7" t="n">
-        <v>488.8670374811852</v>
+        <v>682.9724752679349</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796261</v>
+        <v>987.1783726748436</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392144</v>
+        <v>618.2158557344319</v>
       </c>
       <c r="D8" t="n">
-        <v>552.8079389392144</v>
+        <v>618.2158557344319</v>
       </c>
       <c r="E8" t="n">
-        <v>552.8079389392144</v>
+        <v>618.2158557344319</v>
       </c>
       <c r="F8" t="n">
-        <v>545.8624381900109</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>130.7899880350074</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1373.778212738965</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W10" t="n">
-        <v>1319.603231339825</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="X10" t="n">
-        <v>1091.613680441807</v>
+        <v>601.600924124166</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,37 +5056,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191922</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191922</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
         <v>1025.119922845744</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876679</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876679</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7826650753321</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602303</v>
+        <v>1949.83911739012</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396416</v>
+        <v>1695.154629184233</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359455</v>
+        <v>1405.737459147272</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614378</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179076</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684175</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2298.853875300085</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2079.252410323026</v>
       </c>
       <c r="U16" t="n">
-        <v>1963.123159128057</v>
+        <v>1790.177183667224</v>
       </c>
       <c r="V16" t="n">
-        <v>1708.43867092217</v>
+        <v>1535.492695461337</v>
       </c>
       <c r="W16" t="n">
-        <v>1419.02150088521</v>
+        <v>1246.075525424376</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1018.085974526359</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>797.2933953828287</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5506,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,28 +5530,28 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703794</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3052.758924204018</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>2883.822741276111</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>2733.706101863776</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>2733.706101863776</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>2586.816154365865</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218389</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398592</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4507.978318053496</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4288.376853076437</v>
+        <v>2085.00228649874</v>
       </c>
       <c r="U19" t="n">
-        <v>3999.301626420635</v>
+        <v>1795.927059842937</v>
       </c>
       <c r="V19" t="n">
-        <v>3744.617138214749</v>
+        <v>1541.24257163705</v>
       </c>
       <c r="W19" t="n">
-        <v>3455.199968177788</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="X19" t="n">
-        <v>3455.199968177788</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>3234.407389034258</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111713</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266882</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3229.653730559301</v>
+        <v>3044.50749608713</v>
       </c>
       <c r="C22" t="n">
-        <v>3060.717547631394</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="D22" t="n">
-        <v>2910.600908219058</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E22" t="n">
-        <v>2762.687814636665</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>2615.797867138755</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376191</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218389</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.02030972914</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389148</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098133</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671692</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650994</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650994</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673935</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U22" t="n">
-        <v>4404.185983673935</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V22" t="n">
-        <v>4149.501495468048</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W22" t="n">
-        <v>3860.084325431088</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X22" t="n">
-        <v>3632.09477453307</v>
+        <v>3446.9485400609</v>
       </c>
       <c r="Y22" t="n">
-        <v>3411.30219538954</v>
+        <v>3226.15596091737</v>
       </c>
     </row>
     <row r="23">
@@ -5975,55 +5977,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852888</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811333</v>
+        <v>3275.130390493382</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>3106.194207565475</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>2956.077568153139</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>2808.164474570746</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>2661.274527072836</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.278523222742</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T25" t="n">
-        <v>2159.677058245683</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U25" t="n">
-        <v>1870.601831589881</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V25" t="n">
-        <v>1870.601831589881</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.18466155292</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.195110654903</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.402531511373</v>
+        <v>3456.778855323621</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6245,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3192.420589669523</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>3023.484406741616</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.255922673039</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>3822.85118454131</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>3594.861633643293</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>3374.069054499763</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6469,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6546,13 +6548,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>615.644930552589</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>615.644930552589</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
         <v>317.6151975578602</v>
@@ -6649,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2174.285961605313</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W31" t="n">
-        <v>1246.075525424376</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X31" t="n">
-        <v>1018.085974526359</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y31" t="n">
-        <v>797.2933953828287</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2715.159942084666</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>3312.538429711218</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>3940.136393265825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>4492.046123505112</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>4492.046123505112</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101817</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>572.9069687101817</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>572.9069687101817</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>426.0170212122713</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>258.8209219271512</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P36" t="n">
-        <v>2366.028450684176</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.6673633290469</v>
+        <v>3229.653730559302</v>
       </c>
       <c r="C37" t="n">
-        <v>699.73118040114</v>
+        <v>3060.717547631396</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>2910.60090821906</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>2762.687814636667</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>4149.50149546805</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>3860.084325431089</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>3632.094774533072</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.315828159287</v>
+        <v>3411.302195389542</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7196,25 +7198,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.002557118214</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>2716.927329289435</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>3212.252935505193</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>3809.631423131745</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N39" t="n">
-        <v>3869.022106831313</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>4420.9318370706</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>4420.9318370706</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>954.2476448606602</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>785.3114619327533</v>
       </c>
       <c r="D40" t="n">
-        <v>343.0994656851784</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851784</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,25 +7405,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7430,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>2980.381044744765</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>3607.979008299372</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1024.063349920562</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1205.711814750802</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7625,13 +7627,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,28 +7642,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7670,25 +7672,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615667</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.71794833454</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673289</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667833</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694718</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740626</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385792</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385792</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913447</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K45" t="n">
-        <v>2381.235169913447</v>
+        <v>2381.981709809276</v>
       </c>
       <c r="L45" t="n">
-        <v>2808.971891347486</v>
+        <v>2877.307316025035</v>
       </c>
       <c r="M45" t="n">
-        <v>3406.350378974038</v>
+        <v>3474.685803651586</v>
       </c>
       <c r="N45" t="n">
-        <v>4033.948342528644</v>
+        <v>4102.283767206193</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528644</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023712</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398594</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301207</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022981</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566166</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334423</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606222</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400689</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635735</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797189</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8060,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>70.03064962107908</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>255.8421700460954</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -8295,25 +8297,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>70.03064962107896</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>60.50016306149536</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9893,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -11060,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>39.52450498097924</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>258.8387309000593</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>100.7734165143924</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>271.9899322206177</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>140.4465591824916</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>106.4657939283489</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>111.7546635373312</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>102.8897022617933</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>66.73277020259144</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>180.3938179578225</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>66.09406519747961</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>178.2123075861796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>194.8566322838565</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>100.7734165143927</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>58.20633287440187</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>10.85445046951727</v>
       </c>
     </row>
     <row r="35">
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>111.7546635373308</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.08115057384171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.44045370237463</v>
+        <v>61.70948393027197</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>73.85777223953465</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>124.5310997715149</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>725120.9322463836</v>
+        <v>731657.0524975616</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712962.6583438909</v>
+        <v>712962.658343891</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712962.6583438909</v>
+        <v>712962.658343891</v>
       </c>
     </row>
     <row r="14">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312477</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287551</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287548</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>706253.2747287551</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287554</v>
@@ -26366,13 +26368,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307095</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171976</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719733</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719705</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719704</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.36846171966</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719725</v>
+        <v>7507.368461719635</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.36846171965</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-622391.8709312604</v>
+        <v>-622391.8709312605</v>
       </c>
       <c r="C6" t="n">
-        <v>492359.9126446586</v>
+        <v>492359.9126446585</v>
       </c>
       <c r="D6" t="n">
-        <v>331156.0643964462</v>
+        <v>492359.9126446587</v>
       </c>
       <c r="E6" t="n">
-        <v>272210.9146357737</v>
+        <v>90137.93481858262</v>
       </c>
       <c r="F6" t="n">
-        <v>597623.3764431286</v>
+        <v>597623.3764431287</v>
       </c>
       <c r="G6" t="n">
-        <v>597623.3764431286</v>
+        <v>597623.3764431288</v>
       </c>
       <c r="H6" t="n">
-        <v>597623.376443128</v>
+        <v>597623.3764431285</v>
       </c>
       <c r="I6" t="n">
         <v>597623.3764431286</v>
       </c>
       <c r="J6" t="n">
-        <v>430018.1986331459</v>
+        <v>430018.1986331458</v>
       </c>
       <c r="K6" t="n">
+        <v>597623.3764431287</v>
+      </c>
+      <c r="L6" t="n">
         <v>597623.3764431286</v>
       </c>
-      <c r="L6" t="n">
-        <v>549329.4064349376</v>
-      </c>
       <c r="M6" t="n">
-        <v>512568.348507617</v>
+        <v>465016.0827142016</v>
       </c>
       <c r="N6" t="n">
-        <v>597623.376443129</v>
+        <v>597623.3764431286</v>
       </c>
       <c r="O6" t="n">
         <v>597623.3764431283</v>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26741,10 +26743,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.234920625768703e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>216.0237046574304</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>377.5428535738742</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>116.3986683100133</v>
+        <v>180.7761327186886</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27619,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>91.10735540326141</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>377.5428535738733</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>109.2305752199376</v>
       </c>
       <c r="V7" t="n">
-        <v>11.09077243102604</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>322.8342827123714</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>230.9726715005247</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>249.8216109625117</v>
+        <v>62.17982147541363</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29098,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>9.144685009232491e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29332,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-6.751381063403296e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,34 +31843,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>652.3203287778414</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,34 +32317,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990649</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>202.2352659288688</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,22 +32788,22 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>173.385139958665</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,13 +32812,13 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -33020,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>687.9583686879464</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,16 +33268,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>279.2419622547062</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33503,10 +33505,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>340.7767527663062</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33749,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>291.8940795642898</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N39" t="n">
-        <v>191.332301678856</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>208.6096528357816</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>572.8682992214856</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772173</v>
       </c>
       <c r="L45" t="n">
-        <v>570.6116741576911</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>256.6181458645639</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5216991696276</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676403</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>436.9619819031195</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>395.9248450576184</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>520.9786166945081</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394707</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462705</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770466</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>68.26085851453861</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367786</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>31.2511060366467</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36610,10 +36612,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>545.824334765928</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>140.6875824748321</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37084,13 +37086,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>200.7949786802847</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>151.9123054782682</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N39" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>66.47561891376326</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>430.2720547770412</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367785</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.7540807028583389</v>
       </c>
       <c r="L45" t="n">
-        <v>432.057294377817</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3206544.256543139</v>
+        <v>3202407.099292989</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>168.8856887046236</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.695085082179384</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>98.98102224012231</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>39.9725632785233</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>286.5888679426061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>29.33319216783816</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>176.996578901263</v>
+        <v>90.69811547110022</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>84.04176302934005</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>252.8273223927037</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.9807481254283</v>
       </c>
       <c r="W10" t="n">
-        <v>224.3431768611774</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>27.34574348918484</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>80.25286948725223</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695456</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>110.9396563989393</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>48.85497112745762</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>122.8199531272439</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>98.79136808967741</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2532,16 +2532,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>1.255571502167365</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701356</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.7379149844577</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>22.54881804343173</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>207.7302028825775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,13 +3322,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>33.66638448560049</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>86.90598908794038</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>1.594095449514225</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>21.90286287505425</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="44">
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>909.233203697441</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="C2" t="n">
-        <v>540.2706867570294</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D2" t="n">
-        <v>540.2706867570294</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2391.74772364801</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2391.74772364801</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2060.684836304439</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1707.916181034325</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218646</v>
+        <v>1334.450422773245</v>
       </c>
       <c r="Y2" t="n">
-        <v>909.233203697441</v>
+        <v>944.3110907974335</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4412,25 +4412,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>367.6491696559295</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>662.3527266874012</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.614745646621</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>938.9442613508774</v>
+        <v>2013.576367813029</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229705</v>
+        <v>1844.640184885122</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>1694.523545472787</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2462.358497854577</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2462.358497854577</v>
       </c>
       <c r="T4" t="n">
-        <v>1596.069793530534</v>
+        <v>2462.358497854577</v>
       </c>
       <c r="U4" t="n">
-        <v>1596.069793530534</v>
+        <v>2462.358497854577</v>
       </c>
       <c r="V4" t="n">
-        <v>1341.385305324647</v>
+        <v>2462.358497854577</v>
       </c>
       <c r="W4" t="n">
-        <v>1341.385305324647</v>
+        <v>2462.358497854577</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.385305324647</v>
+        <v>2234.368946956559</v>
       </c>
       <c r="Y4" t="n">
-        <v>1120.592726181117</v>
+        <v>2013.576367813029</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>527.8767859460538</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C5" t="n">
-        <v>158.9142690056421</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D5" t="n">
-        <v>158.9142690056421</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>158.9142690056421</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182945</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218655</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y5" t="n">
-        <v>527.8767859460538</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.614745646621</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.9724752679349</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>514.036292340028</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1158.449542617352</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V7" t="n">
-        <v>903.765054411465</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W7" t="n">
-        <v>903.765054411465</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X7" t="n">
-        <v>903.765054411465</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y7" t="n">
-        <v>682.9724752679349</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>987.1783726748436</v>
+        <v>1842.294639468328</v>
       </c>
       <c r="C8" t="n">
-        <v>618.2158557344319</v>
+        <v>1473.332122527916</v>
       </c>
       <c r="D8" t="n">
-        <v>618.2158557344319</v>
+        <v>1115.066423921166</v>
       </c>
       <c r="E8" t="n">
-        <v>618.2158557344319</v>
+        <v>729.2781713229215</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>318.2922665333139</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>306.6279202980069</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4807,10 +4807,10 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.012626270159</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>1747.243971000045</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X8" t="n">
-        <v>1373.778212738965</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y8" t="n">
-        <v>1373.778212738965</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4886,22 +4886,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>1057.327935297104</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1420.589954256325</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1807.87508285327</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>199.1598801503962</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>199.1598801503962</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4962,16 +4962,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1056.199744578928</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>829.5904750221833</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>601.600924124166</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.8083449806359</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1949.83911739012</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1695.154629184233</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1405.737459147272</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1177.747908249255</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.9553291057244</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5260,70 +5260,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2298.853875300085</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2079.252410323026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1790.177183667224</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1535.492695461337</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1246.075525424376</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1018.085974526359</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>797.2933953828287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,16 +5542,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>3445.398957336244</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>3445.398957336244</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2085.00228649874</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1795.927059842937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1541.24257163705</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1251.82540160009</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3044.50749608713</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2875.571313159223</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159223</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3446.9485400609</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3226.15596091737</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616861</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3275.130390493382</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C25" t="n">
-        <v>3106.194207565475</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D25" t="n">
-        <v>2956.077568153139</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>2808.164474570746</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.274527072836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673038</v>
+        <v>1976.192826467915</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467151</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.571434467151</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X25" t="n">
-        <v>3677.571434467151</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y25" t="n">
-        <v>3456.778855323621</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6250,25 +6250,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2174.285961605313</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1885.210734949511</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1630.526246743624</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1341.109076706663</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6888,19 +6888,19 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
         <v>889.3209912987577</v>
@@ -6919,67 +6919,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3229.653730559302</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>3060.717547631396</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>2910.60090821906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>2762.687814636667</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>4404.185983673937</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>4149.50149546805</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3860.084325431089</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3632.094774533072</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3411.302195389542</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>954.2476448606602</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C40" t="n">
-        <v>785.3114619327533</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y40" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>2980.381044744765</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>3607.979008299372</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7642,34 +7642,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>2381.981709809276</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>2877.307316025035</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3474.685803651586</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>4102.283767206193</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>70.03064962107908</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>240.4465442417437</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>70.03064962107896</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>60.50016306149536</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>258.8387309000593</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>100.7734165143924</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>106.4657939283489</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>102.8897022617933</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>66.73277020259144</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.9289028870768</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.09406519747961</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>194.8566322838565</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25128,7 +25128,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>111.7546635373308</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>61.70948393027197</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>284.9289028870768</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>124.5310997715149</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="I2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="L2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="N2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287551</v>
-      </c>
       <c r="P2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,16 +26420,16 @@
         <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719762</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26438,10 +26438,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.36846171966</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26450,13 +26450,13 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
+        <v>7507.368461719721</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7507.368461719719</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719635</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26524,46 +26524,46 @@
         <v>-622391.8709312605</v>
       </c>
       <c r="C6" t="n">
-        <v>492359.9126446585</v>
+        <v>492359.9126446591</v>
       </c>
       <c r="D6" t="n">
-        <v>492359.9126446587</v>
+        <v>492359.9126446591</v>
       </c>
       <c r="E6" t="n">
-        <v>90137.93481858262</v>
+        <v>89790.55556422623</v>
       </c>
       <c r="F6" t="n">
-        <v>597623.3764431287</v>
+        <v>597275.9971887717</v>
       </c>
       <c r="G6" t="n">
-        <v>597623.3764431288</v>
+        <v>597275.9971887715</v>
       </c>
       <c r="H6" t="n">
-        <v>597623.3764431285</v>
+        <v>597275.9971887717</v>
       </c>
       <c r="I6" t="n">
-        <v>597623.3764431286</v>
+        <v>597275.9971887717</v>
       </c>
       <c r="J6" t="n">
-        <v>430018.1986331458</v>
+        <v>429670.8193787892</v>
       </c>
       <c r="K6" t="n">
-        <v>597623.3764431287</v>
+        <v>597275.9971887715</v>
       </c>
       <c r="L6" t="n">
-        <v>597623.3764431286</v>
+        <v>597275.9971887717</v>
       </c>
       <c r="M6" t="n">
-        <v>465016.0827142016</v>
+        <v>464668.7034598453</v>
       </c>
       <c r="N6" t="n">
-        <v>597623.3764431286</v>
+        <v>597275.9971887717</v>
       </c>
       <c r="O6" t="n">
-        <v>597623.3764431283</v>
+        <v>597275.9971887715</v>
       </c>
       <c r="P6" t="n">
-        <v>597623.3764431286</v>
+        <v>597275.9971887718</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.268305166733595e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.268305166733595e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.268305166733595e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.268305166733595e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.268305166733595e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.268305166733595e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.234920625768703e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26962,23 +26962,23 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241343</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>433.9106082241344</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.268305166733595e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>37.77249627561019</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.5428535738742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>2.576550179451317</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>180.7761327186886</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>68.09417367807686</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5428535738733</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>109.2305752199376</v>
+        <v>195.5290386501004</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>322.8342827123714</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>48.19123016970167</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983997</v>
       </c>
       <c r="W10" t="n">
-        <v>62.17982147541363</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>9.144685009232491e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O12" t="n">
-        <v>351.5042614518788</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>538.5853835133125</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>530.5785304507792</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>202.2352659288688</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>687.9583686879464</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>307.3280120589134</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34219,31 +34219,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>572.8682992214856</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,13 +34444,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772173</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34780,16 +34780,16 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>256.6181458645639</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>607.3778765237842</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>436.9619819031195</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>395.9248450576184</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O12" t="n">
-        <v>208.9080170074344</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>396.4513495912942</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>388.4444965287609</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>68.26085851453861</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36673,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>545.824334765928</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>430.2720547770412</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028583389</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3202407.099292989</v>
+        <v>3204167.629595774</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>40.53387700010089</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>168.8856887046236</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>62.34208561744394</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>98.98102224012231</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>286.5888679426061</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>154.2780473449597</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>90.69811547110022</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,7 +1150,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>252.8273223927037</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>37.63308711920261</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>50.9807481254283</v>
+        <v>194.5335977186327</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
-        <v>27.02919805176115</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>48.85497112745762</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>1.255571502167365</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>64.91921363453586</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2766,10 +2766,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>206.5509998577711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>80.33989744908958</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>1.594095449514225</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.3110907974335</v>
+        <v>1966.993846941858</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974335</v>
+        <v>1966.993846941858</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974335</v>
+        <v>1608.728148335108</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>1222.939895736863</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>811.953990947256</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>396.2492406715448</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>92.19009666911512</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4360,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2391.74772364801</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2391.74772364801</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2060.684836304439</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W2" t="n">
-        <v>1707.916181034325</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X2" t="n">
-        <v>1334.450422773245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="Y2" t="n">
-        <v>944.3110907974335</v>
+        <v>2353.59368700598</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2013.576367813029</v>
+        <v>896.0609183342544</v>
       </c>
       <c r="C4" t="n">
-        <v>1844.640184885122</v>
+        <v>727.1247354063476</v>
       </c>
       <c r="D4" t="n">
-        <v>1694.523545472787</v>
+        <v>577.0080959940118</v>
       </c>
       <c r="E4" t="n">
-        <v>1546.610451890394</v>
+        <v>429.0950024116187</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392483</v>
+        <v>282.2050549137083</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>114.2185902219869</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2462.358497854577</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2462.358497854577</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2462.358497854577</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>2462.358497854577</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V4" t="n">
-        <v>2462.358497854577</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="W4" t="n">
-        <v>2462.358497854577</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="X4" t="n">
-        <v>2234.368946956559</v>
+        <v>896.0609183342544</v>
       </c>
       <c r="Y4" t="n">
-        <v>2013.576367813029</v>
+        <v>896.0609183342544</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.3028554854568</v>
+        <v>1797.459220126684</v>
       </c>
       <c r="C5" t="n">
-        <v>359.3403385450451</v>
+        <v>1428.496703186272</v>
       </c>
       <c r="D5" t="n">
-        <v>69.85663355251364</v>
+        <v>1070.231004579522</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>684.4427519812775</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>273.45684719167</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.04202752539</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549579</v>
+        <v>2184.059060190806</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.2996089082458</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>201.3634259803388</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.831862022881</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1290.147373816994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1000.730203780033</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>772.7406528820156</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.9480737384855</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1842.294639468328</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1473.332122527916</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1115.066423921166</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>729.2781713229215</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>318.2922665333139</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>306.6279202980069</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4804,16 +4804,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2524.326109087829</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2270.745048352009</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>1939.682161008438</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.89447953245</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="X8" t="n">
-        <v>2228.89447953245</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="Y8" t="n">
-        <v>2228.89447953245</v>
+        <v>1586.913505738324</v>
       </c>
     </row>
     <row r="9">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4992,22 +4992,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>927.850718218896</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>927.850718218896</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>699.8611673208786</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5269,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5415,34 +5415,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,7 +5542,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5588,13 +5588,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
@@ -5603,10 +5603,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5652,34 +5652,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5740,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5843,13 +5843,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5889,22 +5889,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>366.9636532421608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5968,25 +5968,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5995,43 +5995,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6605733532803</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1976.192826467915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>241.4783296672662</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6691,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="35">
@@ -6931,49 +6931,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6605733532801</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253733</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>316.6799057705107</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>174.9680746127088</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1432.091168225067</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>1204.10161732705</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3090381835199</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="41">
@@ -7402,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7785,16 +7785,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,37 +7806,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
         <v>1746.193029533436</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>138.9393975111061</v>
       </c>
       <c r="M3" t="n">
-        <v>240.4465442417437</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5862749664512</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>284.9289028870768</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>75.37549921168802</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.9259388694759565</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>284.9289028870768</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712962.6583438909</v>
+        <v>712962.658343891</v>
       </c>
     </row>
     <row r="11">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312481</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312481</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="I2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287549</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287556</v>
@@ -26352,10 +26352,10 @@
         <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719762</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26450,10 +26450,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719721</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719719</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-622391.8709312605</v>
+        <v>-622391.8709312604</v>
       </c>
       <c r="C6" t="n">
-        <v>492359.9126446591</v>
+        <v>492359.9126446592</v>
       </c>
       <c r="D6" t="n">
-        <v>492359.9126446591</v>
+        <v>492359.9126446589</v>
       </c>
       <c r="E6" t="n">
-        <v>89790.55556422623</v>
+        <v>90103.19689314705</v>
       </c>
       <c r="F6" t="n">
-        <v>597275.9971887717</v>
+        <v>597588.638517693</v>
       </c>
       <c r="G6" t="n">
-        <v>597275.9971887715</v>
+        <v>597588.638517693</v>
       </c>
       <c r="H6" t="n">
-        <v>597275.9971887717</v>
+        <v>597588.6385176928</v>
       </c>
       <c r="I6" t="n">
-        <v>597275.9971887717</v>
+        <v>597588.6385176933</v>
       </c>
       <c r="J6" t="n">
-        <v>429670.8193787892</v>
+        <v>429983.4607077098</v>
       </c>
       <c r="K6" t="n">
-        <v>597275.9971887715</v>
+        <v>597588.6385176928</v>
       </c>
       <c r="L6" t="n">
-        <v>597275.9971887717</v>
+        <v>597588.6385176932</v>
       </c>
       <c r="M6" t="n">
-        <v>464668.7034598453</v>
+        <v>464981.3447887663</v>
       </c>
       <c r="N6" t="n">
-        <v>597275.9971887717</v>
+        <v>597588.638517693</v>
       </c>
       <c r="O6" t="n">
-        <v>597275.9971887715</v>
+        <v>597588.638517693</v>
       </c>
       <c r="P6" t="n">
-        <v>597275.9971887718</v>
+        <v>597588.638517693</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>25.17603567236961</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>37.77249627561019</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>84.90942353768494</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.576550179451317</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>68.09417367807686</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>257.2696554279943</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>195.5290386501004</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>48.19123016970167</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>169.0250978610312</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28064,22 +28064,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983997</v>
+        <v>57.60404560519527</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P21" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>436.6197581489562</v>
       </c>
       <c r="M3" t="n">
-        <v>607.3778765237842</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34801,7 +34801,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P21" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
